--- a/data/trans_dic/P29_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P29_R-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4777278790227564</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5014690832185507</v>
+        <v>0.5014690832185508</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1273921232908112</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4261262421302422</v>
+        <v>0.4265793277713915</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4937175526363022</v>
+        <v>0.4929699926602336</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4419835796682633</v>
+        <v>0.4391521055626673</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4613335390575638</v>
+        <v>0.4588024423567864</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1101947891919322</v>
+        <v>0.1098767504978125</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1539297299296022</v>
+        <v>0.1544936710925973</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1172499115092913</v>
+        <v>0.119309068044132</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1363482448862015</v>
+        <v>0.1356242959244318</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2547210804774669</v>
+        <v>0.2547952046752232</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3012469700926707</v>
+        <v>0.3013771118424617</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.26405353615362</v>
+        <v>0.2636127234562324</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.275890270248805</v>
+        <v>0.2757473766848</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4875821485441716</v>
+        <v>0.4892628204339537</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5589896068924101</v>
+        <v>0.5587972875648973</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.514702200495718</v>
+        <v>0.5116813255763506</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5387259511312794</v>
+        <v>0.5396240422836267</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1472322620865815</v>
+        <v>0.145253641556564</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1954576213098791</v>
+        <v>0.1966677258145582</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1601057432641486</v>
+        <v>0.1631149750081931</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1780553590078832</v>
+        <v>0.1762616410082816</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2918115729509272</v>
+        <v>0.2886414811753374</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3415332378715881</v>
+        <v>0.3405110398906303</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3081543791636533</v>
+        <v>0.3070942850728793</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3203281496768458</v>
+        <v>0.3201782833278065</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.6058034086005341</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5698020734472895</v>
+        <v>0.5698020734472896</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3362490922590963</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.600705677616605</v>
+        <v>0.6006496934762766</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5885935177284324</v>
+        <v>0.5882465613959427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5848029382917809</v>
+        <v>0.5834989629257472</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5444953519593837</v>
+        <v>0.5459534370600398</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3119948942851851</v>
+        <v>0.3125304670539409</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3169944508983486</v>
+        <v>0.3185152413387657</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3461533750499389</v>
+        <v>0.3434460425783147</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.35587736804556</v>
+        <v>0.3540149005316336</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4686980968030438</v>
+        <v>0.4666773278344226</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.46758149797776</v>
+        <v>0.4682591268947082</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4717762687217923</v>
+        <v>0.4729381755668224</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4572450187644387</v>
+        <v>0.4578514333199776</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6484450808250037</v>
+        <v>0.6489270477043677</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6329565551118815</v>
+        <v>0.6329175238786559</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6265725383652716</v>
+        <v>0.6291687516234077</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5951632975490855</v>
+        <v>0.5945026973240259</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3608871601408831</v>
+        <v>0.3602458550949445</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3645051689561847</v>
+        <v>0.3659250465969262</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3889786669660518</v>
+        <v>0.3890605170682945</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3950454743698859</v>
+        <v>0.394799850477457</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5047264304495312</v>
+        <v>0.5033224364137407</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5015256853116244</v>
+        <v>0.5010568028175882</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5043420279935977</v>
+        <v>0.504456025181011</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.489067028704866</v>
+        <v>0.4885881546581837</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5925914303759297</v>
+        <v>0.591735231663824</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6276976041668145</v>
+        <v>0.6316082434562674</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6521711655608402</v>
+        <v>0.6536652138375397</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5840152859869837</v>
+        <v>0.5849802361989195</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3627242742943044</v>
+        <v>0.3601515089801295</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4430720915523961</v>
+        <v>0.4406982709020421</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4739798246756239</v>
+        <v>0.4772137247655635</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4605140611798058</v>
+        <v>0.4648064866098985</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5012126400105933</v>
+        <v>0.4991624784661475</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5549671855733352</v>
+        <v>0.5511500496553595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5768475425007386</v>
+        <v>0.5768882127414156</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5327474828988965</v>
+        <v>0.5346903369013479</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.679955880324747</v>
+        <v>0.6766497800281848</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7209697391623393</v>
+        <v>0.7203484836859796</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7349001241213299</v>
+        <v>0.7320258827064103</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6609408232465985</v>
+        <v>0.6619125374419803</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4495047892210444</v>
+        <v>0.4517033274920172</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.540155121624755</v>
+        <v>0.5425613985851854</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5653599291914202</v>
+        <v>0.5627787617029968</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5295125384273788</v>
+        <v>0.5270750749287195</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5615121700586535</v>
+        <v>0.5645786306273617</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6221275029811499</v>
+        <v>0.6201754627438093</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6378618268857211</v>
+        <v>0.6365105476528281</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5840179403109426</v>
+        <v>0.5848991211822718</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5914724084838175</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5695657741226058</v>
+        <v>0.5695657741226057</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2650098556315305</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5568683724871063</v>
+        <v>0.5565381121046986</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5783789553167499</v>
+        <v>0.5783870672586865</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5740727846374624</v>
+        <v>0.5736069535522628</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5510690594103579</v>
+        <v>0.550617790632682</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2503897932298049</v>
+        <v>0.2484804892989605</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2812220363249905</v>
+        <v>0.281083399309313</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3105223571795619</v>
+        <v>0.3097071870031836</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3350646387998834</v>
+        <v>0.3367127789687997</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4055804652034533</v>
+        <v>0.4044185798886609</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4315927216353673</v>
+        <v>0.4316952212751896</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4441192814532504</v>
+        <v>0.4427434219723333</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4447393574088985</v>
+        <v>0.4449302688296236</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.590402892886401</v>
+        <v>0.591015818389501</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6134750923256505</v>
+        <v>0.6136977252025656</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6073526106830249</v>
+        <v>0.6092980127681513</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5886822496216405</v>
+        <v>0.5880732630971653</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.281104229782964</v>
+        <v>0.2801662290495667</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3127902460869831</v>
+        <v>0.3130041037327598</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3419679404043565</v>
+        <v>0.341884944009024</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3644331853569188</v>
+        <v>0.3651971863788541</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.429426657605888</v>
+        <v>0.4282454789954624</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.45658326361351</v>
+        <v>0.4551768670947592</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4699990702655795</v>
+        <v>0.4676216923649565</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4678433523357361</v>
+        <v>0.4702864123233781</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>439644</v>
+        <v>440112</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>481198</v>
+        <v>480470</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>332983</v>
+        <v>330850</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>265843</v>
+        <v>264384</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>144919</v>
+        <v>144500</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>205778</v>
+        <v>206532</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>116107</v>
+        <v>118146</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>111709</v>
+        <v>111115</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>597788</v>
+        <v>597962</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>696324</v>
+        <v>696625</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>460412</v>
+        <v>459644</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>385015</v>
+        <v>384816</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>503050</v>
+        <v>504784</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>544815</v>
+        <v>544628</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>387768</v>
+        <v>385492</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>310440</v>
+        <v>310957</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>193627</v>
+        <v>191025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>261294</v>
+        <v>262911</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>158545</v>
+        <v>161525</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>145879</v>
+        <v>144409</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>684834</v>
+        <v>677394</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>789445</v>
+        <v>787082</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>537308</v>
+        <v>535460</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>447030</v>
+        <v>446821</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1017243</v>
+        <v>1017148</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1155972</v>
+        <v>1155291</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1213636</v>
+        <v>1210930</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1212304</v>
+        <v>1215551</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>495346</v>
+        <v>496196</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>557214</v>
+        <v>559887</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>688257</v>
+        <v>682874</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>771463</v>
+        <v>767426</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1537839</v>
+        <v>1531208</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1740226</v>
+        <v>1742748</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1917105</v>
+        <v>1921827</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2009249</v>
+        <v>2011914</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1098085</v>
+        <v>1098901</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1243099</v>
+        <v>1243023</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1300320</v>
+        <v>1305708</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1325115</v>
+        <v>1323644</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>572971</v>
+        <v>571953</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>640728</v>
+        <v>643224</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>773406</v>
+        <v>773569</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>856371</v>
+        <v>855838</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1656051</v>
+        <v>1651444</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1866558</v>
+        <v>1864813</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>2049439</v>
+        <v>2049902</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2149083</v>
+        <v>2146979</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>326760</v>
+        <v>326288</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>302036</v>
+        <v>303918</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>356663</v>
+        <v>357480</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>415578</v>
+        <v>416264</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>172806</v>
+        <v>171581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>202763</v>
+        <v>201676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>259278</v>
+        <v>261047</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>337496</v>
+        <v>340642</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>515156</v>
+        <v>513049</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>521009</v>
+        <v>517426</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>631019</v>
+        <v>631063</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>769530</v>
+        <v>772336</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>374933</v>
+        <v>373110</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>346917</v>
+        <v>346618</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>401907</v>
+        <v>400335</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>470317</v>
+        <v>471008</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>214149</v>
+        <v>215197</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>247191</v>
+        <v>248292</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>309265</v>
+        <v>307853</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>388063</v>
+        <v>386276</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>577133</v>
+        <v>580285</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>584060</v>
+        <v>582228</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>697763</v>
+        <v>696285</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>843588</v>
+        <v>844860</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1824603</v>
+        <v>1823521</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1977930</v>
+        <v>1977958</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1937817</v>
+        <v>1936245</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1936626</v>
+        <v>1935041</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>846116</v>
+        <v>839665</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>998974</v>
+        <v>998482</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1094769</v>
+        <v>1091895</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1246419</v>
+        <v>1252550</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2699439</v>
+        <v>2691705</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3009083</v>
+        <v>3009798</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3064926</v>
+        <v>3055431</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3217353</v>
+        <v>3218734</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1934480</v>
+        <v>1936489</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2097951</v>
+        <v>2098712</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2050155</v>
+        <v>2056722</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2068811</v>
+        <v>2066671</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>949907</v>
+        <v>946737</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1111113</v>
+        <v>1111873</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1205633</v>
+        <v>1205340</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1355668</v>
+        <v>1358510</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2858153</v>
+        <v>2850291</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>3183319</v>
+        <v>3173513</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>3243526</v>
+        <v>3227119</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>3384492</v>
+        <v>3402166</v>
       </c>
     </row>
     <row r="20">
